--- a/Jogos_do_Dia/2022-12-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
@@ -924,10 +924,10 @@
         <v>2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF4" t="n">
         <v>1.55</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -977,16 +977,16 @@
         <v>6.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="L5" t="n">
         <v>2.45</v>
       </c>
       <c r="M5" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
         <v>1.15</v>
@@ -1093,10 +1093,10 @@
         <v>2.45</v>
       </c>
       <c r="M6" t="n">
-        <v>2.47</v>
+        <v>2.72</v>
       </c>
       <c r="N6" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="O6" t="n">
         <v>1.73</v>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1203,7 +1203,7 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
         <v>1.75</v>
@@ -1316,7 +1316,7 @@
         <v>2.3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
         <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I10" t="n">
         <v>1.14</v>
@@ -1533,10 +1533,10 @@
         <v>2.4</v>
       </c>
       <c r="M10" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.59</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,7 +1643,7 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="N11" t="n">
         <v>2.3</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1753,10 +1753,10 @@
         <v>2.95</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>1.07</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
         <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>1.09</v>
@@ -2083,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N15" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.9</v>
       </c>
       <c r="M16" t="n">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -2345,28 +2345,28 @@
         <v>2.87</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O18" t="n">
         <v>1.4</v>
@@ -2455,28 +2455,28 @@
         <v>2.58</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2586,7 +2586,7 @@
         <v>2.9</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="N20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2794,7 +2794,7 @@
         <v>2.67</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE21" t="n">
         <v>1.5</v>
@@ -2806,7 +2806,7 @@
         <v>2.25</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="22">
@@ -2835,10 +2835,10 @@
         <v>1.75</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="N22" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2904,7 +2904,7 @@
         <v>3.28</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE22" t="n">
         <v>1.55</v>
@@ -2916,7 +2916,7 @@
         <v>2.3</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="23">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G23" t="n">
         <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="I23" t="n">
         <v>1.07</v>
@@ -3014,7 +3014,7 @@
         <v>2.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE23" t="n">
         <v>1.48</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I24" t="n">
         <v>1.05</v>
@@ -3073,10 +3073,10 @@
         <v>3.3</v>
       </c>
       <c r="M24" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3124,10 +3124,10 @@
         <v>1.95</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF24" t="n">
         <v>1.57</v>
@@ -3165,10 +3165,10 @@
         <v>1.28</v>
       </c>
       <c r="G25" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3183,10 +3183,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="N25" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -3388,7 +3388,7 @@
         <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
         <v>1.06</v>
@@ -3403,10 +3403,10 @@
         <v>3.25</v>
       </c>
       <c r="M27" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I28" t="n">
         <v>1.08</v>
@@ -3513,10 +3513,10 @@
         <v>2.7</v>
       </c>
       <c r="M28" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I29" t="n">
         <v>1.08</v>
@@ -3623,10 +3623,10 @@
         <v>2.75</v>
       </c>
       <c r="M29" t="n">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="N29" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O29" t="n">
         <v>1.46</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I30" t="n">
         <v>1.1</v>
@@ -3733,10 +3733,10 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.47</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="H31" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="I31" t="n">
         <v>1.11</v>
@@ -3843,10 +3843,10 @@
         <v>2.6</v>
       </c>
       <c r="M31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O31" t="n">
         <v>1.49</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3953,10 +3953,10 @@
         <v>2.6</v>
       </c>
       <c r="M32" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
         <v>1.49</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
         <v>1.08</v>
@@ -4063,10 +4063,10 @@
         <v>2.8</v>
       </c>
       <c r="M33" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="N33" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I34" t="n">
         <v>1.1</v>
@@ -4173,10 +4173,10 @@
         <v>2.6</v>
       </c>
       <c r="M34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>2.7</v>
       </c>
       <c r="M35" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
         <v>1.51</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
         <v>7.5</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="H37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="I37" t="n">
         <v>1.02</v>
@@ -4613,10 +4613,10 @@
         <v>3.6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="N38" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2022-12-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>1.56</v>
@@ -805,25 +805,25 @@
         <v>2.49</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N4" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="O4" t="n">
         <v>1.37</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G5" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>1.1</v>
@@ -1025,28 +1025,28 @@
         <v>2.42</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="I6" t="n">
         <v>1.15</v>
@@ -1087,10 +1087,10 @@
         <v>5.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="L6" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="M6" t="n">
         <v>2.72</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="I7" t="n">
         <v>1.07</v>
@@ -1203,10 +1203,10 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="G8" t="n">
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.8</v>
       </c>
       <c r="M8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="N9" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
         <v>1.14</v>
@@ -1527,10 +1527,10 @@
         <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M10" t="n">
         <v>2.55</v>
@@ -1575,28 +1575,28 @@
         <v>2.38</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,7 +1643,7 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="N11" t="n">
         <v>2.3</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1753,10 +1753,10 @@
         <v>2.95</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N12" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="I13" t="n">
         <v>1.07</v>
@@ -1863,10 +1863,10 @@
         <v>2.8</v>
       </c>
       <c r="M13" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
         <v>1.09</v>
@@ -1973,10 +1973,10 @@
         <v>2.7</v>
       </c>
       <c r="M14" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
@@ -2083,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2134,7 +2134,7 @@
         <v>2.82</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE15" t="n">
         <v>1.3</v>
@@ -2175,10 +2175,10 @@
         <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.9</v>
       </c>
       <c r="M16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2235,28 +2235,28 @@
         <v>2.86</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG16" t="n">
         <v>1.95</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2303,10 +2303,10 @@
         <v>3.2</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.44</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2413,10 +2413,10 @@
         <v>3.15</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N18" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.4</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I19" t="n">
         <v>1.07</v>
@@ -2523,10 +2523,10 @@
         <v>2.8</v>
       </c>
       <c r="M19" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
@@ -2565,13 +2565,13 @@
         <v>2.77</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD19" t="n">
         <v>1.35</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2675,13 +2675,13 @@
         <v>2.77</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AD20" t="n">
         <v>1.24</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
         <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2743,10 +2743,10 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N21" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="N22" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.85</v>
+        <v>2.74</v>
       </c>
       <c r="I23" t="n">
         <v>1.07</v>
@@ -2963,10 +2963,10 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="N23" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="I24" t="n">
         <v>1.05</v>
@@ -3073,10 +3073,10 @@
         <v>3.3</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3183,10 +3183,10 @@
         <v>4.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>2.32</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="I26" t="n">
         <v>1.05</v>
@@ -3293,10 +3293,10 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N26" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
         <v>1.06</v>
@@ -3403,10 +3403,10 @@
         <v>3.25</v>
       </c>
       <c r="M27" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3445,28 +3445,28 @@
         <v>2.91</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="28">
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I28" t="n">
         <v>1.08</v>
@@ -3513,10 +3513,10 @@
         <v>2.7</v>
       </c>
       <c r="M28" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="N28" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -3564,19 +3564,19 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE28" t="n">
         <v>1.98</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="29">
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="G29" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="I29" t="n">
         <v>1.08</v>
@@ -3623,10 +3623,10 @@
         <v>2.75</v>
       </c>
       <c r="M29" t="n">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="N29" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="O29" t="n">
         <v>1.46</v>
@@ -3674,19 +3674,19 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="30">
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="G30" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="I30" t="n">
         <v>1.1</v>
@@ -3733,10 +3733,10 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O30" t="n">
         <v>1.47</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE30" t="n">
         <v>1.83</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="31">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="G31" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="H31" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="I31" t="n">
         <v>1.11</v>
@@ -3843,10 +3843,10 @@
         <v>2.6</v>
       </c>
       <c r="M31" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O31" t="n">
         <v>1.49</v>
@@ -3894,19 +3894,19 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE31" t="n">
         <v>1.8</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="32">
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>3.11</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.83</v>
+        <v>2.76</v>
       </c>
       <c r="I32" t="n">
         <v>1.1</v>
@@ -3953,10 +3953,10 @@
         <v>2.6</v>
       </c>
       <c r="M32" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N32" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O32" t="n">
         <v>1.49</v>
@@ -4004,19 +4004,19 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="33">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="G33" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="H33" t="n">
         <v>2.7</v>
@@ -4063,10 +4063,10 @@
         <v>2.8</v>
       </c>
       <c r="M33" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N33" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="O33" t="n">
         <v>1.44</v>
@@ -4114,19 +4114,19 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE33" t="n">
         <v>1.88</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="34">
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="G34" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
         <v>1.1</v>
@@ -4167,16 +4167,16 @@
         <v>6.5</v>
       </c>
       <c r="K34" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="L34" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N34" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -4224,19 +4224,19 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE34" t="n">
         <v>1.93</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="35">
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G35" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>2.7</v>
       </c>
       <c r="M35" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="N35" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
         <v>1.51</v>
@@ -4334,19 +4334,19 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE35" t="n">
         <v>1.98</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="36">
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="G36" t="n">
-        <v>5.5</v>
+        <v>5.15</v>
       </c>
       <c r="H36" t="n">
-        <v>7.5</v>
+        <v>7.45</v>
       </c>
       <c r="I36" t="n">
         <v>1.02</v>
@@ -4435,28 +4435,28 @@
         <v>3.92</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="37">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>5.85</v>
       </c>
       <c r="G37" t="n">
         <v>4.35</v>
       </c>
       <c r="H37" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="I37" t="n">
         <v>1.02</v>
@@ -4503,10 +4503,10 @@
         <v>4.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="N37" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I38" t="n">
         <v>1.03</v>
@@ -4613,10 +4613,10 @@
         <v>3.6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N38" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
